--- a/UnidadI/EntidadRelacion/AnalisisFacebook.xlsx
+++ b/UnidadI/EntidadRelacion/AnalisisFacebook.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-III\RepositorioEjercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-III\RepositorioEjercicios\IS501-III2018\UnidadI\EntidadRelacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4196A87-B1FE-47D8-ADF4-3362ED636FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B053389-723B-435A-9C88-CC851BCBA78E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{5EA33C47-0CA9-4C82-8B0A-E997A16501B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
   <si>
     <t>Nombre</t>
   </si>
@@ -165,9 +166,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>Brayan, Britani</t>
-  </si>
-  <si>
     <t>Municipios</t>
   </si>
   <si>
@@ -177,9 +175,6 @@
     <t>Nombre Municipio</t>
   </si>
   <si>
-    <t>San Pedro Sula</t>
-  </si>
-  <si>
     <t>Codigo Municipio Vive</t>
   </si>
   <si>
@@ -297,9 +292,6 @@
     <t>Como sos vaaa</t>
   </si>
   <si>
-    <t>Hola</t>
-  </si>
-  <si>
     <t>Adios</t>
   </si>
   <si>
@@ -391,6 +383,90 @@
   </si>
   <si>
     <t xml:space="preserve">Jefe </t>
+  </si>
+  <si>
+    <t>Asi soy y khe</t>
+  </si>
+  <si>
+    <t>Codigo Comentario Padre</t>
+  </si>
+  <si>
+    <t>Contestame prro</t>
+  </si>
+  <si>
+    <t>Codigo Asignatura</t>
+  </si>
+  <si>
+    <t>Asignatura</t>
+  </si>
+  <si>
+    <t>Matematica I</t>
+  </si>
+  <si>
+    <t>Matematica II</t>
+  </si>
+  <si>
+    <t>Calculo</t>
+  </si>
+  <si>
+    <t>Codigo Requisito</t>
+  </si>
+  <si>
+    <t>Departamentos</t>
+  </si>
+  <si>
+    <t>Codigo Departamento</t>
+  </si>
+  <si>
+    <t>Nombre Departamento</t>
+  </si>
+  <si>
+    <t>Paises</t>
+  </si>
+  <si>
+    <t>Codigo Pais</t>
+  </si>
+  <si>
+    <t>Nombre Pais</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Francisco Morazan</t>
+  </si>
+  <si>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>Algun municipio de chiquimula</t>
+  </si>
+  <si>
+    <t>La Esperanza</t>
+  </si>
+  <si>
+    <t>Lugares</t>
+  </si>
+  <si>
+    <t>Nombre Lugar</t>
+  </si>
+  <si>
+    <t>Codigo Lugar Padre</t>
+  </si>
+  <si>
+    <t>CostaRica</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Lugar</t>
+  </si>
+  <si>
+    <t>Codigo Tipo Reaccion</t>
   </si>
 </sst>
 </file>
@@ -429,12 +505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -616,12 +692,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -641,9 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -958,18 +1046,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65499954-238F-4621-8EAC-149DBE5E94E3}">
-  <dimension ref="A3:T64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="G30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
@@ -986,20 +1074,20 @@
     <col min="17" max="17" width="21.28515625" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
@@ -1008,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -1029,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1058,7 +1146,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1">
         <v>111</v>
@@ -1073,14 +1161,12 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1100,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1">
         <v>222</v>
@@ -1115,17 +1201,15 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="O6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1145,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1">
         <v>33</v>
@@ -1160,17 +1244,15 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1190,7 +1272,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1">
         <v>444</v>
@@ -1205,17 +1287,15 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="M8" s="8"/>
       <c r="O8" s="1">
         <v>2</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1235,7 +1315,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1">
         <v>555</v>
@@ -1250,17 +1330,15 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="M9" s="8"/>
       <c r="O9" s="1">
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1280,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="10">
         <v>666</v>
@@ -1297,55 +1375,97 @@
       </c>
       <c r="M10" s="13"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
       <c r="I16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="Q17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="S17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1375,18 +1495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
         <v>2</v>
@@ -1407,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S19" s="7">
         <v>1</v>
@@ -1416,18 +1530,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" s="7">
         <v>3</v>
@@ -1457,18 +1568,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>50</v>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="7">
         <v>4</v>
@@ -1489,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S21" s="7">
         <v>3</v>
@@ -1498,24 +1612,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="9">
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
         <v>5</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7">
         <v>3</v>
@@ -1530,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S22" s="7">
         <v>3</v>
@@ -1539,7 +1656,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
       <c r="I23" s="7">
         <v>6</v>
       </c>
@@ -1559,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" s="7">
         <v>4</v>
@@ -1568,12 +1694,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="9">
         <v>7</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -1591,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L25" s="7">
         <v>6</v>
       </c>
@@ -1608,7 +1743,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
       <c r="L26" s="9">
         <v>6</v>
       </c>
@@ -1625,232 +1763,333 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="I29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W30" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>6</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>41255</v>
+      </c>
+      <c r="W31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>6</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>6</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>41255</v>
+      </c>
+      <c r="W32" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="M31" s="1">
-        <v>6</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="2">
         <v>41255</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="7">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="1">
-        <v>4</v>
-      </c>
-      <c r="M32" s="1">
-        <v>6</v>
-      </c>
-      <c r="O32" s="1">
-        <v>2</v>
-      </c>
-      <c r="P32" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>2</v>
-      </c>
-      <c r="R32" s="2">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E33" s="7">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="8">
-        <v>2</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4</v>
-      </c>
-      <c r="M33" s="1">
-        <v>6</v>
-      </c>
-      <c r="O33" s="1">
-        <v>3</v>
-      </c>
-      <c r="P33" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>3</v>
-      </c>
-      <c r="R33" s="2">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W33" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E34" s="7">
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="8">
         <v>2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="I34" s="1">
         <v>4</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="J34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="1">
         <v>4</v>
       </c>
+      <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>7</v>
-      </c>
-      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="1">
         <v>4</v>
       </c>
-      <c r="P34" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
         <v>5</v>
       </c>
-      <c r="R34" s="2">
+      <c r="V34" s="2">
         <v>41255</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W34" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E35" s="7">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
       </c>
-      <c r="R35" s="19"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I35" s="21">
+        <v>5</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="21">
+        <v>5</v>
+      </c>
+      <c r="L35" s="18">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>5</v>
+      </c>
+      <c r="R35" s="22"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="2">
+        <v>41255</v>
+      </c>
+      <c r="W35" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E36" s="7">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E37" s="7">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="9">
         <v>8</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G38" s="13">
         <v>5</v>
@@ -1859,29 +2098,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="N39" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J40" s="1">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -1891,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J41" s="1">
         <v>2</v>
       </c>
@@ -1906,9 +2145,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>15</v>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
       </c>
       <c r="J42" s="1">
         <v>3</v>
@@ -1924,24 +2163,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -1957,23 +2190,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2">
-        <v>41255</v>
-      </c>
-      <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1">
@@ -1990,24 +2215,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2">
-        <v>41255</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
         <v>3</v>
@@ -2023,24 +2240,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>5</v>
-      </c>
-      <c r="E46" s="2">
-        <v>41255</v>
-      </c>
-      <c r="F46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
         <v>4</v>
@@ -2056,43 +2265,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
       </c>
       <c r="D47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="E47" s="2">
-        <v>41255</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E48" s="19"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
       <c r="J50" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
       <c r="J51" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
       <c r="J52" s="1">
         <v>1</v>
       </c>
@@ -2105,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2113,20 +2377,125 @@
         <v>3</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="21"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>41255</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>41255</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>41255</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>41255</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2134,22 +2503,80 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{CE3D8FF0-E687-4A7D-BAED-F28D71E52A1E}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{FCCD00A0-FABA-446F-BEEB-BA8FFEC96AA7}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{16F8E94C-1D6B-4186-8B0A-67EFCF6E54D9}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{93384405-5D81-47AE-9334-2D8673530139}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{6E05A8F5-E52A-43A3-ADCB-11B877FA93FD}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{79F1733D-B288-446E-91FD-54D3870B6BB7}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B5:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UnidadI/EntidadRelacion/AnalisisFacebook.xlsx
+++ b/UnidadI/EntidadRelacion/AnalisisFacebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teach UNAH\Bases de Datos I\2018-III\RepositorioEjercicios\IS501-III2018\UnidadI\EntidadRelacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B053389-723B-435A-9C88-CC851BCBA78E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4130508-AE1F-441C-8CD9-360A95F71167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Codigo Municipio</t>
-  </si>
-  <si>
     <t>Nombre Municipio</t>
   </si>
   <si>
@@ -467,13 +464,28 @@
   </si>
   <si>
     <t>Codigo Tipo Reaccion</t>
+  </si>
+  <si>
+    <r>
+      <t>Codigo Mu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nicipio</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +506,13 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1049,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,15 +1098,15 @@
   <sheetData>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
@@ -1096,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -1117,13 +1136,13 @@
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1146,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1">
         <v>111</v>
@@ -1163,7 +1182,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1186,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1">
         <v>222</v>
@@ -1203,10 +1222,10 @@
       </c>
       <c r="M6" s="8"/>
       <c r="O6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1229,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1">
         <v>33</v>
@@ -1249,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1272,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1">
         <v>444</v>
@@ -1292,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1315,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
         <v>555</v>
@@ -1335,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10">
         <v>666</v>
@@ -1382,13 +1401,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1407,22 +1426,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="S16" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,42 +1449,42 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="S17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -1497,10 +1516,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="I19" s="7">
         <v>2</v>
@@ -1521,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S19" s="7">
         <v>1</v>
@@ -1532,13 +1551,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
         <v>3</v>
@@ -1570,19 +1589,19 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="7">
         <v>4</v>
@@ -1603,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S21" s="7">
         <v>3</v>
@@ -1617,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1626,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
         <v>5</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7">
         <v>3</v>
@@ -1647,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S22" s="7">
         <v>3</v>
@@ -1661,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1685,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S23" s="7">
         <v>4</v>
@@ -1708,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -1745,7 +1764,7 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L26" s="9">
         <v>6</v>
@@ -1765,10 +1784,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -1776,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1784,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>12</v>
@@ -1801,55 +1820,55 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="T30" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="W30" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -1857,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -1866,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1">
         <v>4</v>
@@ -1899,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -1908,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K32" s="1">
         <v>5</v>
@@ -1943,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="8">
         <v>2</v>
@@ -1952,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
@@ -1985,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="8">
         <v>2</v>
@@ -1994,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="1">
         <v>4</v>
@@ -2027,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -2036,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K35" s="21">
         <v>5</v>
@@ -2067,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -2078,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="8">
         <v>4</v>
@@ -2089,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="13">
         <v>5</v>
@@ -2100,19 +2119,19 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -2120,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -2147,7 +2166,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J42" s="1">
         <v>3</v>
@@ -2165,16 +2184,16 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D43" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -2195,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -2220,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
@@ -2245,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -2270,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -2284,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
@@ -2321,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -2338,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2349,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1">
         <v>6</v>
@@ -2369,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2377,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,22 +2409,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2413,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
@@ -2433,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
@@ -2453,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>45</v>
@@ -2473,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -2490,12 +2509,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2503,10 +2522,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2540,13 +2559,13 @@
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2554,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2562,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2573,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
